--- a/server/src/main/java/net/guides/springboot2/crud/templates/FisaIndividuala.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/FisaIndividuala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\webapp-spring\server\src\main\java\net\guides\springboot2\crud\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8621E35-7323-43DA-8C8B-390613F3A493}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D9ADF-BE20-4613-945D-75E7A87F151B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Functia : </t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>IANUARIE</t>
   </si>
   <si>
-    <t>TOTAL 2020</t>
-  </si>
-  <si>
     <t>[nume societate]</t>
   </si>
   <si>
@@ -149,6 +143,12 @@
   </si>
   <si>
     <t>Salariu de incadrare</t>
+  </si>
+  <si>
+    <t>[data]</t>
+  </si>
+  <si>
+    <t>TOTAL AN</t>
   </si>
 </sst>
 </file>
@@ -496,9 +496,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -513,9 +510,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -542,30 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -592,10 +562,40 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
     <col min="9" max="9" width="10.33203125"/>
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
     <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5546875" customWidth="1"/>
@@ -950,685 +950,686 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2">
+        <v>13</v>
+      </c>
+      <c r="O4" s="2">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="38"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="30">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19">
+        <v>856</v>
+      </c>
+      <c r="D9" s="20">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>813</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>856</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <v>86</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3">
-        <v>11</v>
-      </c>
-      <c r="M4" s="3">
-        <v>12</v>
-      </c>
-      <c r="N4" s="3">
-        <v>13</v>
-      </c>
-      <c r="O4" s="3">
-        <v>14</v>
-      </c>
-      <c r="P4" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>43</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>556</v>
+      </c>
+      <c r="L10" s="21">
+        <v>214</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <v>56</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25">
+        <v>9416</v>
+      </c>
+      <c r="D11" s="26">
+        <v>210</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>8560</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27">
+        <v>9031</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0</v>
+      </c>
+      <c r="M11" s="27">
+        <v>907</v>
+      </c>
+      <c r="N11" s="27">
+        <v>0</v>
+      </c>
+      <c r="O11" s="27">
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="41">
-        <v>8</v>
-      </c>
-      <c r="C9" s="29">
-        <v>856</v>
-      </c>
-      <c r="D9" s="30">
-        <v>19</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="31">
-        <v>813</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0</v>
-      </c>
-      <c r="K9" s="31">
-        <v>856</v>
-      </c>
-      <c r="L9" s="31">
-        <v>0</v>
-      </c>
-      <c r="M9" s="31">
-        <v>86</v>
-      </c>
-      <c r="N9" s="31">
-        <v>0</v>
-      </c>
-      <c r="O9" s="31">
-        <v>0</v>
-      </c>
-      <c r="P9" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="28">
-        <v>2</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="30">
-        <v>1</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
         <v>43</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0</v>
-      </c>
-      <c r="K10" s="31">
-        <v>556</v>
-      </c>
-      <c r="L10" s="31">
-        <v>214</v>
-      </c>
-      <c r="M10" s="31">
-        <v>0</v>
-      </c>
-      <c r="N10" s="31">
-        <v>56</v>
-      </c>
-      <c r="O10" s="31">
-        <v>0</v>
-      </c>
-      <c r="P10" s="31">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35">
-        <v>9416</v>
-      </c>
-      <c r="D11" s="36">
-        <v>210</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0</v>
-      </c>
-      <c r="G11" s="37">
-        <v>8560</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="37">
-        <v>0</v>
-      </c>
-      <c r="J11" s="37">
-        <v>0</v>
-      </c>
-      <c r="K11" s="37">
-        <v>9031</v>
-      </c>
-      <c r="L11" s="37">
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <v>907</v>
-      </c>
-      <c r="N11" s="37">
-        <v>0</v>
-      </c>
-      <c r="O11" s="37">
-        <v>0</v>
-      </c>
-      <c r="P11" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="36">
-        <v>1</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36">
-        <v>0</v>
-      </c>
-      <c r="G12" s="37">
-        <v>43</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="37">
+      <c r="H12" s="22"/>
+      <c r="I12" s="27">
         <v>428</v>
       </c>
-      <c r="J12" s="37">
-        <v>0</v>
-      </c>
-      <c r="K12" s="37">
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27">
         <v>5866</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="27">
         <v>2258</v>
       </c>
-      <c r="M12" s="37">
-        <v>0</v>
-      </c>
-      <c r="N12" s="37">
+      <c r="M12" s="27">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
         <v>591</v>
       </c>
-      <c r="O12" s="37">
-        <v>0</v>
-      </c>
-      <c r="P12" s="37">
+      <c r="O12" s="27">
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
         <v>5275</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -1639,7 +1640,7 @@
     <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/server/src/main/java/net/guides/springboot2/crud/templates/FisaIndividuala.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/FisaIndividuala.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\webapp-spring\server\src\main\java\net\guides\springboot2\crud\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D9ADF-BE20-4613-945D-75E7A87F151B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="334"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="????"/>
     <numFmt numFmtId="165" formatCode="?????????????"/>
@@ -665,7 +659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -717,7 +711,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -911,21 +905,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4579C1-F165-40C2-ACC2-46A51A65E4BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="A4" sqref="A4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1017,54 +1011,22 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <v>8</v>
-      </c>
-      <c r="J4" s="2">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2">
-        <v>12</v>
-      </c>
-      <c r="N4" s="2">
-        <v>13</v>
-      </c>
-      <c r="O4" s="2">
-        <v>14</v>
-      </c>
-      <c r="P4" s="2">
-        <v>15</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
